--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H2">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I2">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J2">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>0.9303020232177779</v>
+        <v>2.572438939826667</v>
       </c>
       <c r="R2">
-        <v>8.37271820896</v>
+        <v>23.15195045844</v>
       </c>
       <c r="S2">
-        <v>0.001033133753924673</v>
+        <v>0.01156975124039892</v>
       </c>
       <c r="T2">
-        <v>0.001033133753924673</v>
+        <v>0.01156975124039892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H3">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I3">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J3">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>0.1178558194755556</v>
+        <v>0.2349912395371111</v>
       </c>
       <c r="R3">
-        <v>1.06070237528</v>
+        <v>2.114921155834</v>
       </c>
       <c r="S3">
-        <v>0.0001308831133952568</v>
+        <v>0.001056892019097085</v>
       </c>
       <c r="T3">
-        <v>0.0001308831133952568</v>
+        <v>0.001056892019097084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H4">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I4">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J4">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>0.2921205065955556</v>
+        <v>0.6627203426473333</v>
       </c>
       <c r="R4">
-        <v>2.62908455936</v>
+        <v>5.964483083826</v>
       </c>
       <c r="S4">
-        <v>0.0003244102969200939</v>
+        <v>0.002980638097049729</v>
       </c>
       <c r="T4">
-        <v>0.000324410296920094</v>
+        <v>0.002980638097049729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H5">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I5">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J5">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>0.6773210145777778</v>
+        <v>0.4675749801237779</v>
       </c>
       <c r="R5">
-        <v>6.095889131199999</v>
+        <v>4.208174821114</v>
       </c>
       <c r="S5">
-        <v>0.000752189272879822</v>
+        <v>0.002102956117835431</v>
       </c>
       <c r="T5">
-        <v>0.000752189272879822</v>
+        <v>0.00210295611783543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H6">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I6">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J6">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>0.5881215144177778</v>
+        <v>1.502108791010889</v>
       </c>
       <c r="R6">
-        <v>5.29309362976</v>
+        <v>13.518979119098</v>
       </c>
       <c r="S6">
-        <v>0.000653130029592621</v>
+        <v>0.006755855223208276</v>
       </c>
       <c r="T6">
-        <v>0.000653130029592621</v>
+        <v>0.006755855223208276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H7">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I7">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J7">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>0.3286802184000001</v>
+        <v>0.4994913192175556</v>
       </c>
       <c r="R7">
-        <v>2.9581219656</v>
+        <v>4.495421872958</v>
       </c>
       <c r="S7">
-        <v>0.0003650111677730728</v>
+        <v>0.002246502422512388</v>
       </c>
       <c r="T7">
-        <v>0.0003650111677730728</v>
+        <v>0.002246502422512388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.936876</v>
       </c>
       <c r="I8">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J8">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>44.18146320730489</v>
+        <v>61.27178945874667</v>
       </c>
       <c r="R8">
-        <v>397.633168865744</v>
+        <v>551.44610512872</v>
       </c>
       <c r="S8">
-        <v>0.04906509907327422</v>
+        <v>0.2755748061174824</v>
       </c>
       <c r="T8">
-        <v>0.04906509907327421</v>
+        <v>0.2755748061174823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.936876</v>
       </c>
       <c r="I9">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J9">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>5.597152776165777</v>
@@ -1013,10 +1013,10 @@
         <v>50.37437498549199</v>
       </c>
       <c r="S9">
-        <v>0.00621583885083778</v>
+        <v>0.02517364524077282</v>
       </c>
       <c r="T9">
-        <v>0.006215838850837779</v>
+        <v>0.02517364524077281</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.936876</v>
       </c>
       <c r="I10">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J10">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>13.87324878603378</v>
+        <v>15.78504378706533</v>
       </c>
       <c r="R10">
-        <v>124.859239074304</v>
+        <v>142.065394083588</v>
       </c>
       <c r="S10">
-        <v>0.0154067402195585</v>
+        <v>0.07099450529521842</v>
       </c>
       <c r="T10">
-        <v>0.0154067402195585</v>
+        <v>0.07099450529521839</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.936876</v>
       </c>
       <c r="I11">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J11">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>32.16700892640889</v>
+        <v>11.13696239579244</v>
       </c>
       <c r="R11">
-        <v>289.5030803376799</v>
+        <v>100.232661562132</v>
       </c>
       <c r="S11">
-        <v>0.03572261680107051</v>
+        <v>0.05008938501828071</v>
       </c>
       <c r="T11">
-        <v>0.0357226168010705</v>
+        <v>0.05008938501828068</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.936876</v>
       </c>
       <c r="I12">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J12">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>27.93078849898489</v>
+        <v>35.77806732825822</v>
       </c>
       <c r="R12">
-        <v>251.377096490864</v>
+        <v>322.002605954324</v>
       </c>
       <c r="S12">
-        <v>0.03101814212144014</v>
+        <v>0.1609147383214792</v>
       </c>
       <c r="T12">
-        <v>0.03101814212144014</v>
+        <v>0.1609147383214792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.936876</v>
       </c>
       <c r="I13">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J13">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>15.60952530876</v>
+        <v>11.89716361144489</v>
       </c>
       <c r="R13">
-        <v>140.48572777884</v>
+        <v>107.074472503004</v>
       </c>
       <c r="S13">
-        <v>0.01733493755440995</v>
+        <v>0.05350845118991169</v>
       </c>
       <c r="T13">
-        <v>0.01733493755440994</v>
+        <v>0.05350845118991168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H14">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I14">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J14">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>240.3657472340227</v>
+        <v>32.45637168392667</v>
       </c>
       <c r="R14">
-        <v>2163.291725106204</v>
+        <v>292.10734515534</v>
       </c>
       <c r="S14">
-        <v>0.2669347809175542</v>
+        <v>0.1459751447294843</v>
       </c>
       <c r="T14">
-        <v>0.2669347809175542</v>
+        <v>0.1459751447294843</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H15">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I15">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J15">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>30.45086585551633</v>
+        <v>2.964876209422111</v>
       </c>
       <c r="R15">
-        <v>274.0577926996469</v>
+        <v>26.683885884799</v>
       </c>
       <c r="S15">
-        <v>0.03381677838639043</v>
+        <v>0.01333476945575317</v>
       </c>
       <c r="T15">
-        <v>0.03381677838639042</v>
+        <v>0.01333476945575317</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H16">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I16">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J16">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>75.47630994862932</v>
+        <v>8.361519268912334</v>
       </c>
       <c r="R16">
-        <v>679.2867895376639</v>
+        <v>75.253673420211</v>
       </c>
       <c r="S16">
-        <v>0.08381914849534364</v>
+        <v>0.03760660610262585</v>
       </c>
       <c r="T16">
-        <v>0.08381914849534364</v>
+        <v>0.03760660610262585</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H17">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I17">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J17">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>175.0020613984867</v>
+        <v>5.899377089208778</v>
       </c>
       <c r="R17">
-        <v>1575.01855258638</v>
+        <v>53.094393802879</v>
       </c>
       <c r="S17">
-        <v>0.1943460641005726</v>
+        <v>0.0265329234209358</v>
       </c>
       <c r="T17">
-        <v>0.1943460641005726</v>
+        <v>0.02653292342093579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H18">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I18">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J18">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>151.9552400719027</v>
+        <v>18.95205381785589</v>
       </c>
       <c r="R18">
-        <v>1367.597160647124</v>
+        <v>170.568484360703</v>
       </c>
       <c r="S18">
-        <v>0.1687517426448285</v>
+        <v>0.08523838788648559</v>
       </c>
       <c r="T18">
-        <v>0.1687517426448285</v>
+        <v>0.08523838788648559</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H19">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I19">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J19">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>84.92238469341001</v>
+        <v>6.302064417712556</v>
       </c>
       <c r="R19">
-        <v>764.3014622406901</v>
+        <v>56.718579759413</v>
       </c>
       <c r="S19">
-        <v>0.09430935320023418</v>
+        <v>0.02834404210146838</v>
       </c>
       <c r="T19">
-        <v>0.09430935320023416</v>
+        <v>0.02834404210146838</v>
       </c>
     </row>
   </sheetData>
